--- a/550/data/method_key.xlsx
+++ b/550/data/method_key.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thema\OneDrive\Documents\homework\FAL24\final_figs\data\dat_survey\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bmcgreal\Documents\dissertation\survey\550\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88758443-E965-4D66-9334-FE969570BE8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB1D43CA-F4C3-4727-ADEA-E22C193A7A73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21915" yWindow="3240" windowWidth="21600" windowHeight="11385" xr2:uid="{C9F29A45-2224-4D92-89EE-C40B698A5B9A}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{C9F29A45-2224-4D92-89EE-C40B698A5B9A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="78">
   <si>
     <t>Method</t>
   </si>
@@ -157,6 +157,117 @@
   </si>
   <si>
     <t>Population (Area Under Curve)</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>assuming 'Redd count expansion below weir' is the same as 'Redd count expansion * Fish per redd estimate'</t>
+  </si>
+  <si>
+    <t>assuming 'PIT-tag estimate' is the same as 'PIT-tag expansion estimate'</t>
+  </si>
+  <si>
+    <t>video counts' appears nowhere else</t>
+  </si>
+  <si>
+    <t>expansion below dam' appears nowhere else</t>
+  </si>
+  <si>
+    <t>Method_a</t>
+  </si>
+  <si>
+    <t>a1</t>
+  </si>
+  <si>
+    <t>a2</t>
+  </si>
+  <si>
+    <t>a3</t>
+  </si>
+  <si>
+    <t>a3+a4</t>
+  </si>
+  <si>
+    <t>a3+a5</t>
+  </si>
+  <si>
+    <t>a3+a4+a7</t>
+  </si>
+  <si>
+    <t>a3+a7</t>
+  </si>
+  <si>
+    <t>a3+a8</t>
+  </si>
+  <si>
+    <t>a4</t>
+  </si>
+  <si>
+    <t>a5</t>
+  </si>
+  <si>
+    <t>a4+a6</t>
+  </si>
+  <si>
+    <t>a4+a7</t>
+  </si>
+  <si>
+    <t>a7</t>
+  </si>
+  <si>
+    <t>a8</t>
+  </si>
+  <si>
+    <t>a9</t>
+  </si>
+  <si>
+    <t>a10</t>
+  </si>
+  <si>
+    <t>a11</t>
+  </si>
+  <si>
+    <t>a12</t>
+  </si>
+  <si>
+    <t>a13</t>
+  </si>
+  <si>
+    <t>a14</t>
+  </si>
+  <si>
+    <t>a15</t>
+  </si>
+  <si>
+    <t>a16</t>
+  </si>
+  <si>
+    <t>a16+a4</t>
+  </si>
+  <si>
+    <t>a16+a7</t>
+  </si>
+  <si>
+    <t>a16+a8</t>
+  </si>
+  <si>
+    <t>a8+a15</t>
+  </si>
+  <si>
+    <t>a9+a14</t>
+  </si>
+  <si>
+    <t>a9+a14+a17</t>
+  </si>
+  <si>
+    <t>a9+a15</t>
+  </si>
+  <si>
+    <t>a18</t>
+  </si>
+  <si>
+    <t>a19</t>
   </si>
 </sst>
 </file>
@@ -192,8 +303,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -212,9 +324,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -252,7 +364,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -358,7 +470,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -500,7 +612,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -508,366 +620,479 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0931B8F5-2673-4D6F-ACBE-5ED7BE625EB4}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="76.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="76.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" t="s">
         <v>7</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" t="s">
         <v>8</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" t="s">
         <v>9</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" t="s">
         <v>11</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" t="s">
         <v>12</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E12" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" t="s">
         <v>13</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="C14" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" t="s">
         <v>15</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" t="s">
         <v>16</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" t="s">
         <v>17</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" t="s">
         <v>18</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" t="s">
         <v>19</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" t="s">
         <v>20</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" t="s">
         <v>21</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" t="s">
         <v>22</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" t="s">
         <v>23</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" t="s">
         <v>26</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" t="s">
         <v>27</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" t="s">
         <v>28</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" t="s">
         <v>29</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E29" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" t="s">
         <v>30</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" t="s">
         <v>31</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" t="s">
         <v>32</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>36</v>
       </c>
     </row>
